--- a/biology/Botanique/Anigozanthos/Anigozanthos.xlsx
+++ b/biology/Botanique/Anigozanthos/Anigozanthos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anigozanthos est un genre de plante de la famille des Haemodoraceae. C'est le genre des « pattes de kangourou » (kangaroo paw).
 Plusieurs espèces sont cultivées pour l'ornement, parmi lesquelles Anigozanthos flavidus et Anigozanthos manglesii. Anigozanthos flavidus est une plante herbacée pérenne originaire des zones humides des forêts claires du sud-ouest de l'Australie.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anigozanthos bicolor
 Anigozanthos bicolor ssp. bicolor
@@ -536,7 +550,7 @@
 Anigozanthos viridis
 Anigozanthos viridis subsp. terraspectans
 Anigozanthos viridis subsp. metallica
-Selon World Checklist of Selected Plant Families (WCSP)  (16 Jul 2010)[1] :
+Selon World Checklist of Selected Plant Families (WCSP)  (16 Jul 2010) :
 Anigozanthos bicolor Endl. (1846)
 Anigozanthos flavidus DC. (1807)
 Anigozanthos gabrielae Domin, J. Linn. Soc. (1912)
@@ -548,7 +562,7 @@
 Anigozanthos pulcherrimus Hook. (1845)
 Anigozanthos rufus Labill. (1800)
 Anigozanthos viridis Endl. (1846)
-Selon NCBI  (16 Jul 2010)[2] :
+Selon NCBI  (16 Jul 2010) :
 Anigozanthos bicolor
 Anigozanthos flavidus
 Anigozanthos gabrielae
